--- a/2018/Norte/AC/resultado.xlsx
+++ b/2018/Norte/AC/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H85"/>
+  <dimension ref="A1:J85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,16 @@
           <t>DS_GENERO</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -514,6 +524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -554,6 +574,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -594,6 +624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -634,6 +674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -674,6 +724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -714,6 +774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -754,6 +824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -794,6 +874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -834,6 +924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -874,6 +974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -914,6 +1024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -954,6 +1074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -994,6 +1124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1034,6 +1174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1074,6 +1224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1114,6 +1274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1154,6 +1324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1194,6 +1374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1234,6 +1424,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1274,6 +1474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1314,6 +1524,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1354,6 +1574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1394,6 +1624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1434,6 +1674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1474,6 +1724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1514,6 +1774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1554,6 +1824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1594,6 +1874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1634,6 +1924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1674,6 +1974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1714,6 +2024,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1754,6 +2074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1794,6 +2124,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1834,6 +2174,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1874,6 +2224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1914,6 +2274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1954,6 +2324,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1994,6 +2374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2034,6 +2424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2074,6 +2474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2114,6 +2524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2154,6 +2574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2194,6 +2624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2234,6 +2674,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2274,6 +2724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2314,6 +2774,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2354,6 +2824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2394,6 +2874,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2434,6 +2924,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2474,6 +2974,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2514,6 +3024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -2554,6 +3074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2594,6 +3124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2634,6 +3174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2674,6 +3224,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2714,6 +3274,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2754,6 +3324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2794,6 +3374,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2834,6 +3424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2874,6 +3474,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2914,6 +3524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2954,6 +3574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2994,6 +3624,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3034,6 +3674,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3074,6 +3724,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3114,6 +3774,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3154,6 +3824,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3194,6 +3874,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3234,6 +3924,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3274,6 +3974,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -3314,6 +4024,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3354,6 +4074,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -3394,6 +4124,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3434,6 +4174,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -3474,6 +4224,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -3514,6 +4274,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -3554,6 +4324,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3594,6 +4374,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3634,6 +4424,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -3674,6 +4474,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -3714,6 +4524,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -3754,6 +4574,16 @@
           <t>MASCULINO</t>
         </is>
       </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3794,6 +4624,16 @@
           <t>FEMININO</t>
         </is>
       </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -3832,6 +4672,16 @@
       <c r="H85" t="inlineStr">
         <is>
           <t>FEMININO</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
     </row>

--- a/2018/Norte/AC/resultado.xlsx
+++ b/2018/Norte/AC/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J85"/>
+  <dimension ref="A1:N85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,12 +476,32 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>DS_ESTADO_CIVIL</t>
+          <t>DS_ESTADO_CIVIL_x</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>DS_GRAU_INSTRUCAO</t>
+          <t>DS_GRAU_INSTRUCAO_x</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL_y</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO_y</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>SQ_CANDIDATO</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO</t>
         </is>
       </c>
     </row>
@@ -534,6 +554,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>10000600205</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,6 +622,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
+        <v>10000600207</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -634,6 +690,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
+        <v>10000600209</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -684,6 +758,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M5" t="n">
+        <v>10000600212</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -734,6 +826,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
+        <v>10000600213</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -784,6 +894,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
+        <v>10000600214</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -834,6 +962,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M8" t="n">
+        <v>10000600222</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -884,6 +1030,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
+        <v>10000600230</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -934,6 +1098,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
+        <v>10000600232</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -984,6 +1166,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M11" t="n">
+        <v>10000600246</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1034,6 +1234,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M12" t="n">
+        <v>10000600839</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1084,6 +1302,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M13" t="n">
+        <v>10000600840</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1134,6 +1370,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M14" t="n">
+        <v>10000600841</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1184,6 +1438,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M15" t="n">
+        <v>10000600842</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1234,6 +1506,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M16" t="n">
+        <v>10000600843</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1284,6 +1574,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M17" t="n">
+        <v>10000600844</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1334,6 +1642,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M18" t="n">
+        <v>10000600845</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1384,6 +1710,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M19" t="n">
+        <v>10000600846</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1434,6 +1778,24 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M20" t="n">
+        <v>10000600847</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1484,6 +1846,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M21" t="n">
+        <v>10000600848</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1534,6 +1914,24 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="M22" t="n">
+        <v>10000600849</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1584,6 +1982,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M23" t="n">
+        <v>10000600850</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1634,6 +2050,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M24" t="n">
+        <v>10000600851</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1684,6 +2118,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M25" t="n">
+        <v>10000600852</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1734,6 +2186,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M26" t="n">
+        <v>10000600853</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1784,6 +2254,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M27" t="n">
+        <v>10000601164</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1834,6 +2322,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M28" t="n">
+        <v>10000601165</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1884,6 +2390,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M29" t="n">
+        <v>10000601383</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1934,6 +2458,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M30" t="n">
+        <v>10000602282</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1984,6 +2526,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M31" t="n">
+        <v>10000602287</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2034,6 +2594,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M32" t="n">
+        <v>10000602288</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2084,6 +2662,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M33" t="n">
+        <v>10000602289</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2134,6 +2730,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M34" t="n">
+        <v>10000602290</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2184,6 +2798,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M35" t="n">
+        <v>10000602295</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2234,6 +2866,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M36" t="n">
+        <v>10000602299</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2284,6 +2934,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M37" t="n">
+        <v>10000602300</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2334,6 +3002,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M38" t="n">
+        <v>10000602301</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2384,6 +3070,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M39" t="n">
+        <v>10000602303</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2434,6 +3138,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M40" t="n">
+        <v>10000602304</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2484,6 +3206,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M41" t="n">
+        <v>10000602305</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2534,6 +3274,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M42" t="n">
+        <v>10000602311</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2584,6 +3342,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M43" t="n">
+        <v>10000602312</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2634,6 +3410,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M44" t="n">
+        <v>10000602317</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2684,6 +3478,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M45" t="n">
+        <v>10000602318</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -2734,6 +3546,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M46" t="n">
+        <v>10000602508</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2784,6 +3614,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M47" t="n">
+        <v>10000602509</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -2834,6 +3682,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M48" t="n">
+        <v>10000602510</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -2884,6 +3750,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M49" t="n">
+        <v>10000602511</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -2934,6 +3818,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M50" t="n">
+        <v>10000602512</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2984,6 +3886,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M51" t="n">
+        <v>10000602513</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3034,6 +3954,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M52" t="n">
+        <v>10000602514</v>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3084,6 +4022,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>10000602515</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3134,6 +4090,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>10000602516</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3184,6 +4158,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>10000602517</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3234,6 +4226,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>10000602518</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3284,6 +4294,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>10000602519</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3334,6 +4362,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>10000602520</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3384,6 +4430,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>10000602521</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -3434,6 +4498,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>10000602522</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -3484,6 +4566,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>10000602523</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -3534,6 +4634,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>10000608398</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -3584,6 +4702,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>10000608399</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -3634,6 +4770,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>10000608400</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -3684,6 +4838,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>10000608401</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -3734,6 +4906,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>10000608402</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -3784,6 +4974,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>10000608403</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -3834,6 +5042,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>10000608404</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -3884,6 +5110,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>10000608405</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3934,6 +5178,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>10000608406</v>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -3984,6 +5246,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>10000608407</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4034,6 +5314,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>10000608408</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4084,6 +5382,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>10000608409</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4134,6 +5450,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>10000624630</v>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4184,6 +5518,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>10000624631</v>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4234,6 +5586,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>10000624632</v>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -4284,6 +5654,24 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>10000624633</v>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -4334,6 +5722,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>10000624634</v>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -4384,6 +5790,24 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>10000624635</v>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -4434,6 +5858,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>10000624636</v>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -4484,6 +5926,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>10000624637</v>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -4534,6 +5994,24 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>10000624638</v>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -4584,6 +6062,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>10000625359</v>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -4634,6 +6130,24 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>10000625360</v>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -4682,6 +6196,24 @@
       <c r="J85" t="inlineStr">
         <is>
           <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>10000629579</v>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>PDT</t>
         </is>
       </c>
     </row>

--- a/2018/Norte/AC/resultado.xlsx
+++ b/2018/Norte/AC/resultado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N85"/>
+  <dimension ref="A1:R85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -496,12 +496,32 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
+          <t>SG_PARTIDO_x</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>DS_ESTADO_CIVIL</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>DS_GRAU_INSTRUCAO</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>SG_PARTIDO_y</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
           <t>SQ_CANDIDATO</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>SG_PARTIDO</t>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>DS_COR_RACA</t>
         </is>
       </c>
     </row>
@@ -564,12 +584,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q2" t="n">
         <v>10000600205</v>
       </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -632,12 +672,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
         <v>10000600207</v>
       </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -700,12 +760,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
         <v>10000600209</v>
       </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -768,12 +848,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
         <v>10000600212</v>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -836,12 +936,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>PATRIOTA</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
         <v>10000600213</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>PATRIOTA</t>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -904,12 +1024,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q7" t="n">
         <v>10000600214</v>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -972,12 +1112,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
         <v>10000600222</v>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1040,12 +1200,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
         <v>10000600230</v>
       </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1108,12 +1288,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>PSL</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
         <v>10000600232</v>
       </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>PSL</t>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1176,12 +1376,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>PSC</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
         <v>10000600246</v>
       </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>PSC</t>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1244,12 +1464,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
         <v>10000600839</v>
       </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1312,12 +1552,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>PROS</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
         <v>10000600840</v>
       </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>PROS</t>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1380,12 +1640,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
         <v>10000600841</v>
       </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1448,12 +1728,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
         <v>10000600842</v>
       </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>INDÍGENA</t>
         </is>
       </c>
     </row>
@@ -1516,12 +1816,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
         <v>10000600843</v>
       </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R16" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1584,12 +1904,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
         <v>10000600844</v>
       </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1652,12 +1992,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>PSOL</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
         <v>10000600845</v>
       </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>PSOL</t>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1720,12 +2080,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
         <v>10000600846</v>
       </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -1788,12 +2168,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>PV</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
         <v>10000600847</v>
       </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>PV</t>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1856,12 +2256,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>PRB</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
         <v>10000600848</v>
       </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>PRB</t>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -1924,12 +2344,32 @@
           <t>ENSINO FUNDAMENTAL COMPLETO</t>
         </is>
       </c>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>ENSINO FUNDAMENTAL COMPLETO</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
         <v>10000600849</v>
       </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -1992,12 +2432,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>PODE</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
         <v>10000600850</v>
       </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>PODE</t>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2060,12 +2520,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
         <v>10000600851</v>
       </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2128,12 +2608,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>PMB</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
         <v>10000600852</v>
       </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>PMB</t>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2196,12 +2696,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
         <v>10000600853</v>
       </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>PPL</t>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -2264,12 +2784,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
         <v>10000601164</v>
       </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2872,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>REDE</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
         <v>10000601165</v>
       </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>REDE</t>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2400,12 +2960,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>PRP</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
         <v>10000601383</v>
       </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>PRP</t>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2468,12 +3048,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
         <v>10000602282</v>
       </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2536,12 +3136,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
         <v>10000602287</v>
       </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2604,12 +3224,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
         <v>10000602288</v>
       </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -2672,12 +3312,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
         <v>10000602289</v>
       </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2740,12 +3400,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
         <v>10000602290</v>
       </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2808,12 +3488,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
         <v>10000602295</v>
       </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -2876,12 +3576,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
         <v>10000602299</v>
       </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -2944,12 +3664,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
         <v>10000602300</v>
       </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3012,12 +3752,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
         <v>10000602301</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3080,12 +3840,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
         <v>10000602303</v>
       </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3148,12 +3928,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
         <v>10000602304</v>
       </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3216,12 +4016,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
         <v>10000602305</v>
       </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -3284,12 +4104,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
         <v>10000602311</v>
       </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3352,12 +4192,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
         <v>10000602312</v>
       </c>
-      <c r="N43" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3420,12 +4280,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
         <v>10000602317</v>
       </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3488,12 +4368,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
         <v>10000602318</v>
       </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3556,12 +4456,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
         <v>10000602508</v>
       </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3624,12 +4544,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>DEM</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
         <v>10000602509</v>
       </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>DEM</t>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3692,12 +4632,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>PR</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
         <v>10000602510</v>
       </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>PR</t>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3760,12 +4720,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>PTB</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
         <v>10000602511</v>
       </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>PTB</t>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3828,12 +4808,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>PSDB</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
         <v>10000602512</v>
       </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>PSDB</t>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -3896,12 +4896,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>PMN</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
         <v>10000602513</v>
       </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>PMN</t>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -3964,12 +4984,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
         <v>10000602514</v>
       </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4032,12 +5072,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
         <v>10000602515</v>
       </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4100,12 +5160,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
         <v>10000602516</v>
       </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4168,12 +5248,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
         <v>10000602517</v>
       </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4236,12 +5336,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
         <v>10000602518</v>
       </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>PTC</t>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4304,12 +5424,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>PSD</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
         <v>10000602519</v>
       </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>PSD</t>
+      <c r="R57" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4372,12 +5512,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>MDB</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
         <v>10000602520</v>
       </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>MDB</t>
+      <c r="R58" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4440,12 +5600,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>PPS</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
         <v>10000602521</v>
       </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>PPS</t>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4508,12 +5688,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>PP</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
         <v>10000602522</v>
       </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>PP</t>
+      <c r="R60" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4576,12 +5776,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>SOLIDARIEDADE</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
         <v>10000602523</v>
       </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>SOLIDARIEDADE</t>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4644,12 +5864,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
         <v>10000608398</v>
       </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>PRETA</t>
         </is>
       </c>
     </row>
@@ -4712,12 +5952,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
         <v>10000608399</v>
       </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R63" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4780,12 +6040,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
         <v>10000608400</v>
       </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R64" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4848,12 +6128,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
         <v>10000608401</v>
       </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R65" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -4916,12 +6216,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>PSB</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
         <v>10000608402</v>
       </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>PSB</t>
+      <c r="R66" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -4984,12 +6304,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>PT</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
         <v>10000608403</v>
       </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>PT</t>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5052,12 +6392,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>PC do B</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
         <v>10000608404</v>
       </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>PC do B</t>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5120,12 +6480,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
         <v>10000608405</v>
       </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>INDÍGENA</t>
         </is>
       </c>
     </row>
@@ -5188,12 +6568,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>PHS</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
         <v>10000608406</v>
       </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>PHS</t>
+      <c r="R70" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5256,12 +6656,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
         <v>10000608407</v>
       </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5324,12 +6744,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
         <v>10000608408</v>
       </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R72" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5392,12 +6832,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>DC</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
         <v>10000608409</v>
       </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>DC</t>
+      <c r="R73" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5460,12 +6920,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N74" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
         <v>10000624630</v>
       </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R74" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5528,12 +7008,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
         <v>10000624631</v>
       </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R75" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5596,12 +7096,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N76" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
         <v>10000624632</v>
       </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -5664,12 +7184,32 @@
           <t>ENSINO MÉDIO INCOMPLETO</t>
         </is>
       </c>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
         <v>10000624633</v>
       </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R77" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5732,12 +7272,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
         <v>10000624634</v>
       </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R78" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5800,12 +7360,32 @@
           <t>ENSINO MÉDIO COMPLETO</t>
         </is>
       </c>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N79" t="inlineStr">
+        <is>
+          <t>DIVORCIADO(A)</t>
+        </is>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>ENSINO MÉDIO COMPLETO</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
         <v>10000624635</v>
       </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R79" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5868,12 +7448,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
         <v>10000624636</v>
       </c>
-      <c r="N80" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -5936,12 +7536,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
         <v>10000624637</v>
       </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>BRANCA</t>
         </is>
       </c>
     </row>
@@ -6004,12 +7624,32 @@
           <t>SUPERIOR COMPLETO</t>
         </is>
       </c>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>SUPERIOR COMPLETO</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>AVANTE</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
         <v>10000624638</v>
       </c>
-      <c r="N82" t="inlineStr">
-        <is>
-          <t>AVANTE</t>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6072,12 +7712,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
         <v>10000625359</v>
       </c>
-      <c r="N83" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6140,12 +7800,32 @@
           <t>LÊ E ESCREVE</t>
         </is>
       </c>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>SOLTEIRO(A)</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>LÊ E ESCREVE</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>PRTB</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
         <v>10000625360</v>
       </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>PRTB</t>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
@@ -6208,12 +7888,32 @@
           <t>SUPERIOR INCOMPLETO</t>
         </is>
       </c>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>CASADO(A)</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>SUPERIOR INCOMPLETO</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>PDT</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
         <v>10000629579</v>
       </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>PDT</t>
+      <c r="R85" t="inlineStr">
+        <is>
+          <t>PARDA</t>
         </is>
       </c>
     </row>
